--- a/InvoiceExtractor_Perfomer.xlsx
+++ b/InvoiceExtractor_Perfomer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\turis\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FC7E8BB4-DF07-402E-8228-178F27D7CF96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{718BBA60-6F31-4DB0-BF31-098E237F8A80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2748" yWindow="1092" windowWidth="17280" windowHeight="9468" firstSheet="1" activeTab="3" xr2:uid="{193E0008-F545-462C-B78D-615E8D8A8653}"/>
+    <workbookView xWindow="2748" yWindow="1092" windowWidth="17280" windowHeight="9468" firstSheet="1" activeTab="2" xr2:uid="{193E0008-F545-462C-B78D-615E8D8A8653}"/>
   </bookViews>
   <sheets>
     <sheet name="ProcessInvoice" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="27">
   <si>
     <t>No</t>
   </si>
@@ -84,9 +84,6 @@
     <t>Only one sheet created per day in report status file</t>
   </si>
   <si>
-    <t>Approved Vendor Name</t>
-  </si>
-  <si>
     <t>A single subfolder is created if vendor is present in the approved list</t>
   </si>
   <si>
@@ -103,6 +100,15 @@
   </si>
   <si>
     <t>N/A</t>
+  </si>
+  <si>
+    <t>Last queque item</t>
+  </si>
+  <si>
+    <t>The last queque item is generated within the test case</t>
+  </si>
+  <si>
+    <t>s</t>
   </si>
 </sst>
 </file>
@@ -644,10 +650,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>19</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>20</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>12</v>
@@ -668,10 +674,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{066E3946-EF4D-44BC-87C0-520FF90E75F1}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView zoomScale="86" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="86" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F9" sqref="F8:F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -680,6 +686,7 @@
     <col min="3" max="3" width="28.77734375" customWidth="1"/>
     <col min="4" max="4" width="18.44140625" customWidth="1"/>
     <col min="5" max="5" width="28.109375" customWidth="1"/>
+    <col min="6" max="6" width="40.109375" customWidth="1"/>
     <col min="7" max="7" width="24.109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -706,7 +713,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="13" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" s="13" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="11">
         <v>1</v>
       </c>
@@ -722,9 +729,16 @@
       <c r="E2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="6"/>
+      <c r="F2" s="11" t="s">
+        <v>25</v>
+      </c>
       <c r="G2" s="11" t="s">
-        <v>18</v>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F9" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -737,7 +751,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E32066B9-F74C-4B1A-AF3B-ED805D13136D}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
@@ -779,10 +793,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="11" t="s">
         <v>21</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>22</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>12</v>
@@ -791,10 +805,10 @@
         <v>6</v>
       </c>
       <c r="F2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="11" t="s">
         <v>23</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
